--- a/googledrive/sensor_event_log.xlsx
+++ b/googledrive/sensor_event_log.xlsx
@@ -10,7 +10,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="H6HdiwDLFtl0SunCirWnIPZSryPAlvLV1qqR1kRcvP4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="VIK2P9YxFnsmHpBDQ7N6eWTzEeR3AZPXfrZWHFf/Sso="/>
     </ext>
   </extLst>
 </workbook>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="159">
   <si>
     <t>date</t>
   </si>
@@ -208,7 +208,10 @@
     <t>USF</t>
   </si>
   <si>
-    <t>USF6</t>
+    <t>USF20</t>
+  </si>
+  <si>
+    <t>Used to be named USF06</t>
   </si>
   <si>
     <t>USF7</t>
@@ -400,7 +403,7 @@
     <t>2024-04-23</t>
   </si>
   <si>
-    <t>USF20</t>
+    <t>USF6</t>
   </si>
   <si>
     <t>2024-04-30</t>
@@ -463,6 +466,60 @@
     <t>2024-06-24</t>
   </si>
   <si>
+    <t>2024-06-28</t>
+  </si>
+  <si>
+    <t>fDOM sensor had been faulting, so sonde was taken to lab to assess. In lab, all sensor ports were dried out, cleaned, greased, and replaced; DO perc sat and depth sensors were calibrated</t>
+  </si>
+  <si>
+    <t>2024-07-02</t>
+  </si>
+  <si>
+    <t>DO perc sat and depth sensor calibrated in field</t>
+  </si>
+  <si>
+    <t>redeployed as everything seemed OK in lab</t>
+  </si>
+  <si>
+    <t>all data downloaded and cleared from sensor memory. Looks like memory filled up in June!</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>2024-07-09</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>buttercup</t>
+  </si>
+  <si>
+    <t>s::can</t>
+  </si>
+  <si>
+    <t>USF12</t>
+  </si>
+  <si>
+    <t>blossom</t>
+  </si>
+  <si>
+    <t>bubbles</t>
+  </si>
+  <si>
+    <t>USF21</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-08-21</t>
+  </si>
+  <si>
+    <t>2024-09-04</t>
+  </si>
+  <si>
     <t>battery replaced</t>
   </si>
   <si>
@@ -475,9 +532,6 @@
     <t>USF19</t>
   </si>
   <si>
-    <t>USF21</t>
-  </si>
-  <si>
     <t>USFX</t>
   </si>
 </sst>
@@ -485,7 +539,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -501,6 +558,10 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
@@ -547,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -581,9 +642,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -622,17 +680,32 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -640,7 +713,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -852,7 +936,10 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -1358,7 +1445,7 @@
       <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -1376,7 +1463,7 @@
       <c r="G24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>0.6354166666666666</v>
       </c>
     </row>
@@ -1384,7 +1471,7 @@
       <c r="A25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -1402,7 +1489,7 @@
       <c r="G25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <v>0.6666666666666666</v>
       </c>
     </row>
@@ -1410,7 +1497,7 @@
       <c r="A26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1428,7 +1515,7 @@
       <c r="G26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>0.6666666666666666</v>
       </c>
     </row>
@@ -1436,7 +1523,7 @@
       <c r="A27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -1454,7 +1541,7 @@
       <c r="G27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>0.6979166666666666</v>
       </c>
     </row>
@@ -1462,7 +1549,7 @@
       <c r="A28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -1480,7 +1567,7 @@
       <c r="G28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>0.6979166666666666</v>
       </c>
     </row>
@@ -1488,7 +1575,7 @@
       <c r="A29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -1506,7 +1593,7 @@
       <c r="G29" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <v>0.7083333333333334</v>
       </c>
     </row>
@@ -1514,7 +1601,7 @@
       <c r="A30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -1532,7 +1619,7 @@
       <c r="G30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>0.71875</v>
       </c>
     </row>
@@ -1540,7 +1627,7 @@
       <c r="A31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -1558,7 +1645,7 @@
       <c r="G31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="13">
         <v>0.75</v>
       </c>
     </row>
@@ -1758,7 +1845,9 @@
       <c r="G40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="14"/>
+      <c r="H40" s="12" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="10" t="s">
@@ -1775,12 +1864,12 @@
         <v>49</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="14"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="10" t="s">
@@ -1797,19 +1886,19 @@
         <v>49</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="14"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>53</v>
+      <c r="B43" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>32</v>
@@ -1826,7 +1915,7 @@
       <c r="G43" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="13">
         <v>0.3645833333333333</v>
       </c>
     </row>
@@ -1834,8 +1923,8 @@
       <c r="A44" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>54</v>
+      <c r="B44" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>32</v>
@@ -1852,7 +1941,7 @@
       <c r="G44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="13">
         <v>0.3854166666666667</v>
       </c>
     </row>
@@ -1860,8 +1949,8 @@
       <c r="A45" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="13" t="s">
-        <v>54</v>
+      <c r="B45" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>30</v>
@@ -1878,7 +1967,7 @@
       <c r="G45" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="13">
         <v>0.3854166666666667</v>
       </c>
     </row>
@@ -1886,8 +1975,8 @@
       <c r="A46" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>55</v>
+      <c r="B46" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>30</v>
@@ -1904,7 +1993,7 @@
       <c r="G46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="13">
         <v>0.40625</v>
       </c>
     </row>
@@ -1912,8 +2001,8 @@
       <c r="A47" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>56</v>
+      <c r="B47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>28</v>
@@ -1930,7 +2019,7 @@
       <c r="G47" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="13">
         <v>0.4166666666666667</v>
       </c>
     </row>
@@ -1938,8 +2027,8 @@
       <c r="A48" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>57</v>
+      <c r="B48" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>28</v>
@@ -1956,7 +2045,7 @@
       <c r="G48" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="13">
         <v>0.4375</v>
       </c>
     </row>
@@ -1964,8 +2053,8 @@
       <c r="A49" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>58</v>
+      <c r="B49" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>24</v>
@@ -1982,7 +2071,7 @@
       <c r="G49" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="13">
         <v>0.4479166666666667</v>
       </c>
     </row>
@@ -1990,8 +2079,8 @@
       <c r="A50" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>59</v>
+      <c r="B50" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>24</v>
@@ -2008,16 +2097,16 @@
       <c r="G50" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="13">
         <v>0.46875</v>
       </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>32</v>
@@ -2034,16 +2123,16 @@
       <c r="G51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="13">
         <v>0.3645833333333333</v>
       </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>32</v>
@@ -2060,16 +2149,16 @@
       <c r="G52" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="13">
         <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>30</v>
@@ -2086,16 +2175,16 @@
       <c r="G53" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="13">
         <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>30</v>
@@ -2112,16 +2201,16 @@
       <c r="G54" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="13">
         <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="13" t="s">
         <v>61</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>28</v>
@@ -2138,16 +2227,16 @@
       <c r="G55" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="13">
         <v>0.4270833333333333</v>
       </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>28</v>
@@ -2164,16 +2253,16 @@
       <c r="G56" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="13">
         <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>24</v>
@@ -2190,16 +2279,16 @@
       <c r="G57" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="13">
         <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>24</v>
@@ -2216,16 +2305,16 @@
       <c r="G58" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="13">
         <v>0.4791666666666667</v>
       </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="13" t="s">
         <v>65</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>32</v>
@@ -2242,16 +2331,16 @@
       <c r="G59" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <v>0.3541666666666667</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>32</v>
@@ -2268,16 +2357,16 @@
       <c r="G60" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="13">
         <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>30</v>
@@ -2294,16 +2383,16 @@
       <c r="G61" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="13">
         <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>56</v>
+        <v>65</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>30</v>
@@ -2320,16 +2409,16 @@
       <c r="G62" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="13">
         <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>28</v>
@@ -2346,16 +2435,16 @@
       <c r="G63" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="13">
         <v>0.4270833333333333</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>28</v>
@@ -2372,16 +2461,16 @@
       <c r="G64" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <v>0.4479166666666667</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>24</v>
@@ -2398,16 +2487,16 @@
       <c r="G65" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <v>0.4479166666666667</v>
       </c>
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>24</v>
@@ -2424,16 +2513,16 @@
       <c r="G66" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="13">
         <v>0.46875</v>
       </c>
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>32</v>
@@ -2450,16 +2539,16 @@
       <c r="G67" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="13">
         <v>0.3541666666666667</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>32</v>
@@ -2476,16 +2565,16 @@
       <c r="G68" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="13">
         <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>30</v>
@@ -2502,16 +2591,16 @@
       <c r="G69" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="13">
         <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>30</v>
@@ -2528,16 +2617,16 @@
       <c r="G70" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="13">
         <v>0.4375</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>28</v>
@@ -2554,16 +2643,16 @@
       <c r="G71" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="13">
         <v>0.4375</v>
       </c>
     </row>
     <row r="72" ht="14.25" customHeight="1">
       <c r="A72" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>28</v>
@@ -2580,16 +2669,16 @@
       <c r="G72" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H72" s="13">
         <v>0.46875</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>24</v>
@@ -2606,16 +2695,16 @@
       <c r="G73" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="13">
         <v>0.46875</v>
       </c>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" s="13" t="s">
         <v>68</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>24</v>
@@ -2632,15 +2721,15 @@
       <c r="G74" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H74" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="B75" s="11"/>
       <c r="C75" s="8">
         <v>2.1839226E7</v>
       </c>
@@ -2651,18 +2740,18 @@
         <v>49</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H75" s="14"/>
+      <c r="H75" s="13"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B76" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="B76" s="11"/>
       <c r="C76" s="8">
         <v>2.1821228E7</v>
       </c>
@@ -2673,18 +2762,18 @@
         <v>49</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H76" s="14"/>
+      <c r="H76" s="13"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B77" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="B77" s="11"/>
       <c r="C77" s="8">
         <v>2.179395E7</v>
       </c>
@@ -2695,19 +2784,19 @@
         <v>49</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H77" s="14"/>
+      <c r="H77" s="13"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>32</v>
@@ -2724,16 +2813,16 @@
       <c r="G78" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="13">
         <v>0.3645833333333333</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>32</v>
@@ -2750,16 +2839,16 @@
       <c r="G79" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="13">
         <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>30</v>
@@ -2776,16 +2865,16 @@
       <c r="G80" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="13">
         <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>30</v>
@@ -2802,16 +2891,16 @@
       <c r="G81" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H81" s="13">
         <v>0.4375</v>
       </c>
     </row>
     <row r="82" ht="14.25" customHeight="1">
       <c r="A82" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>57</v>
+        <v>74</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>28</v>
@@ -2828,16 +2917,16 @@
       <c r="G82" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H82" s="13">
         <v>0.4375</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1">
       <c r="A83" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>28</v>
@@ -2854,16 +2943,16 @@
       <c r="G83" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H83" s="13">
         <v>0.46875</v>
       </c>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>59</v>
+        <v>74</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>24</v>
@@ -2880,17 +2969,17 @@
       <c r="G84" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H84" s="13">
         <v>0.46875</v>
       </c>
-      <c r="I84" s="15"/>
+      <c r="I84" s="14"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>24</v>
@@ -2907,16 +2996,16 @@
       <c r="G85" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H85" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B86" s="13" t="s">
         <v>74</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>24</v>
@@ -2933,16 +3022,16 @@
       <c r="G86" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H86" s="13">
         <v>0.59375</v>
       </c>
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>24</v>
@@ -2959,16 +3048,16 @@
       <c r="G87" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H87" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>53</v>
+        <v>77</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>32</v>
@@ -2985,16 +3074,16 @@
       <c r="G88" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H88" s="13">
         <v>0.3645833333333333</v>
       </c>
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>32</v>
@@ -3011,16 +3100,16 @@
       <c r="G89" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H89" s="13">
         <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>30</v>
@@ -3037,16 +3126,16 @@
       <c r="G90" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="13">
         <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>55</v>
+        <v>77</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>30</v>
@@ -3063,16 +3152,16 @@
       <c r="G91" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H91" s="14">
+      <c r="H91" s="13">
         <v>0.40625</v>
       </c>
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>55</v>
+        <v>77</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>28</v>
@@ -3089,16 +3178,16 @@
       <c r="G92" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H92" s="14">
+      <c r="H92" s="13">
         <v>0.40625</v>
       </c>
     </row>
     <row r="93" ht="14.25" customHeight="1">
       <c r="A93" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>28</v>
@@ -3115,16 +3204,16 @@
       <c r="G93" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H93" s="14">
+      <c r="H93" s="13">
         <v>0.4375</v>
       </c>
     </row>
     <row r="94" ht="14.25" customHeight="1">
       <c r="A94" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>24</v>
@@ -3141,16 +3230,16 @@
       <c r="G94" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H94" s="14">
+      <c r="H94" s="13">
         <v>0.4375</v>
       </c>
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>58</v>
+        <v>77</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>24</v>
@@ -3167,16 +3256,16 @@
       <c r="G95" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H95" s="14">
+      <c r="H95" s="13">
         <v>0.4479166666666667</v>
       </c>
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>65</v>
+        <v>78</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>32</v>
@@ -3193,16 +3282,16 @@
       <c r="G96" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H96" s="14">
+      <c r="H96" s="13">
         <v>0.3541666666666667</v>
       </c>
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>32</v>
@@ -3219,16 +3308,16 @@
       <c r="G97" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H97" s="14">
+      <c r="H97" s="13">
         <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>54</v>
+        <v>78</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>30</v>
@@ -3245,16 +3334,16 @@
       <c r="G98" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H98" s="14">
+      <c r="H98" s="13">
         <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>56</v>
+        <v>78</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>30</v>
@@ -3271,16 +3360,16 @@
       <c r="G99" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H99" s="14">
+      <c r="H99" s="13">
         <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>57</v>
+        <v>78</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>28</v>
@@ -3297,16 +3386,16 @@
       <c r="G100" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H100" s="14">
+      <c r="H100" s="13">
         <v>0.4375</v>
       </c>
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>28</v>
@@ -3323,16 +3412,16 @@
       <c r="G101" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H101" s="14">
+      <c r="H101" s="13">
         <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>24</v>
@@ -3349,16 +3438,16 @@
       <c r="G102" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H102" s="14">
+      <c r="H102" s="13">
         <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>24</v>
@@ -3375,16 +3464,16 @@
       <c r="G103" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H103" s="14">
+      <c r="H103" s="13">
         <v>0.4791666666666667</v>
       </c>
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B104" s="13" t="s">
         <v>79</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>32</v>
@@ -3401,16 +3490,16 @@
       <c r="G104" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H104" s="14">
+      <c r="H104" s="13">
         <v>0.5520833333333334</v>
       </c>
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>32</v>
@@ -3427,16 +3516,16 @@
       <c r="G105" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H105" s="14">
+      <c r="H105" s="13">
         <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>30</v>
@@ -3453,16 +3542,16 @@
       <c r="G106" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H106" s="14">
+      <c r="H106" s="13">
         <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>30</v>
@@ -3479,16 +3568,16 @@
       <c r="G107" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H107" s="14">
+      <c r="H107" s="13">
         <v>0.59375</v>
       </c>
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>28</v>
@@ -3505,16 +3594,16 @@
       <c r="G108" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H108" s="14">
+      <c r="H108" s="13">
         <v>0.6041666666666666</v>
       </c>
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>28</v>
@@ -3531,16 +3620,16 @@
       <c r="G109" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H109" s="14">
+      <c r="H109" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>75</v>
+        <v>79</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>24</v>
@@ -3557,16 +3646,16 @@
       <c r="G110" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H110" s="14">
+      <c r="H110" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>24</v>
@@ -3583,16 +3672,16 @@
       <c r="G111" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H111" s="14">
+      <c r="H111" s="13">
         <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>32</v>
@@ -3609,16 +3698,16 @@
       <c r="G112" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H112" s="14">
+      <c r="H112" s="13">
         <v>0.3541666666666667</v>
       </c>
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B113" s="13" t="s">
         <v>84</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>32</v>
@@ -3635,16 +3724,16 @@
       <c r="G113" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H113" s="14">
+      <c r="H113" s="13">
         <v>0.375</v>
       </c>
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B114" s="13" t="s">
         <v>84</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>30</v>
@@ -3661,16 +3750,16 @@
       <c r="G114" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H114" s="14">
+      <c r="H114" s="13">
         <v>0.375</v>
       </c>
     </row>
     <row r="115" ht="14.25" customHeight="1">
       <c r="A115" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>66</v>
+        <v>84</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>30</v>
@@ -3687,16 +3776,16 @@
       <c r="G115" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H115" s="14">
+      <c r="H115" s="13">
         <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="116" ht="14.25" customHeight="1">
       <c r="A116" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>55</v>
+        <v>84</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>28</v>
@@ -3713,16 +3802,16 @@
       <c r="G116" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H116" s="14">
+      <c r="H116" s="13">
         <v>0.40625</v>
       </c>
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>28</v>
@@ -3739,16 +3828,16 @@
       <c r="G117" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H117" s="14">
+      <c r="H117" s="13">
         <v>0.4270833333333333</v>
       </c>
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>24</v>
@@ -3765,16 +3854,16 @@
       <c r="G118" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H118" s="14">
+      <c r="H118" s="13">
         <v>0.4270833333333333</v>
       </c>
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>57</v>
+        <v>84</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>24</v>
@@ -3791,16 +3880,16 @@
       <c r="G119" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H119" s="14">
+      <c r="H119" s="13">
         <v>0.4375</v>
       </c>
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>32</v>
@@ -3817,16 +3906,16 @@
       <c r="G120" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H120" s="14">
+      <c r="H120" s="13">
         <v>0.3541666666666667</v>
       </c>
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>54</v>
+        <v>86</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>32</v>
@@ -3843,16 +3932,16 @@
       <c r="G121" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H121" s="14">
+      <c r="H121" s="13">
         <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B122" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>30</v>
@@ -3869,16 +3958,16 @@
       <c r="G122" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H122" s="14">
+      <c r="H122" s="13">
         <v>0.375</v>
       </c>
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>55</v>
+        <v>86</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>30</v>
@@ -3895,16 +3984,16 @@
       <c r="G123" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H123" s="14">
+      <c r="H123" s="13">
         <v>0.40625</v>
       </c>
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>55</v>
+        <v>86</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>28</v>
@@ -3921,16 +4010,16 @@
       <c r="G124" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H124" s="14">
+      <c r="H124" s="13">
         <v>0.40625</v>
       </c>
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>61</v>
+        <v>86</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>28</v>
@@ -3947,16 +4036,16 @@
       <c r="G125" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H125" s="14">
+      <c r="H125" s="13">
         <v>0.4270833333333333</v>
       </c>
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>61</v>
+        <v>86</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>24</v>
@@ -3973,16 +4062,16 @@
       <c r="G126" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H126" s="14">
+      <c r="H126" s="13">
         <v>0.4270833333333333</v>
       </c>
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>58</v>
+        <v>86</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>24</v>
@@ -3999,16 +4088,16 @@
       <c r="G127" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H127" s="14">
+      <c r="H127" s="13">
         <v>0.4479166666666667</v>
       </c>
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B128" s="13" t="s">
         <v>87</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>32</v>
@@ -4025,16 +4114,16 @@
       <c r="G128" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H128" s="14">
+      <c r="H128" s="13">
         <v>0.5625</v>
       </c>
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>32</v>
@@ -4051,16 +4140,16 @@
       <c r="G129" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H129" s="14">
+      <c r="H129" s="13">
         <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>30</v>
@@ -4077,16 +4166,16 @@
       <c r="G130" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H130" s="14">
+      <c r="H130" s="13">
         <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>30</v>
@@ -4103,16 +4192,16 @@
       <c r="G131" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H131" s="14">
+      <c r="H131" s="13">
         <v>0.6041666666666666</v>
       </c>
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>28</v>
@@ -4129,16 +4218,16 @@
       <c r="G132" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H132" s="14">
+      <c r="H132" s="13">
         <v>0.6041666666666666</v>
       </c>
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>75</v>
+        <v>87</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>28</v>
@@ -4155,15 +4244,15 @@
       <c r="G133" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H133" s="14">
+      <c r="H133" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B134" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B134" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C134" s="8" t="s">
@@ -4181,15 +4270,15 @@
       <c r="G134" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H134" s="14">
+      <c r="H134" s="13">
         <v>0.6354166666666666</v>
       </c>
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B135" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B135" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C135" s="8" t="s">
@@ -4207,16 +4296,16 @@
       <c r="G135" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H135" s="14">
+      <c r="H135" s="13">
         <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>74</v>
+        <v>90</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>32</v>
@@ -4233,16 +4322,16 @@
       <c r="G136" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H136" s="14">
+      <c r="H136" s="13">
         <v>0.59375</v>
       </c>
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>75</v>
+        <v>90</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>32</v>
@@ -4259,16 +4348,16 @@
       <c r="G137" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H137" s="14">
+      <c r="H137" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>75</v>
+        <v>90</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>30</v>
@@ -4285,16 +4374,16 @@
       <c r="G138" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H138" s="14">
+      <c r="H138" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>82</v>
+        <v>90</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>30</v>
@@ -4311,15 +4400,15 @@
       <c r="G139" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H139" s="14">
+      <c r="H139" s="13">
         <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B140" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B140" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C140" s="8" t="s">
@@ -4337,15 +4426,15 @@
       <c r="G140" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H140" s="14">
+      <c r="H140" s="13">
         <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B141" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B141" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C141" s="8" t="s">
@@ -4363,15 +4452,15 @@
       <c r="G141" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H141" s="14">
+      <c r="H141" s="13">
         <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B142" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B142" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C142" s="8" t="s">
@@ -4389,15 +4478,15 @@
       <c r="G142" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H142" s="14">
+      <c r="H142" s="13">
         <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B143" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B143" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C143" s="8" t="s">
@@ -4415,16 +4504,16 @@
       <c r="G143" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H143" s="14">
+      <c r="H143" s="13">
         <v>0.71875</v>
       </c>
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B144" s="13" t="s">
         <v>91</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>32</v>
@@ -4441,16 +4530,16 @@
       <c r="G144" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H144" s="14">
+      <c r="H144" s="13">
         <v>0.6145833333333334</v>
       </c>
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="C145" s="8" t="s">
         <v>32</v>
@@ -4467,15 +4556,15 @@
       <c r="G145" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H145" s="14">
+      <c r="H145" s="13">
         <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B146" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C146" s="8" t="s">
@@ -4493,15 +4582,15 @@
       <c r="G146" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H146" s="14">
+      <c r="H146" s="13">
         <v>0.6354166666666666</v>
       </c>
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B147" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B147" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C147" s="8" t="s">
@@ -4519,15 +4608,15 @@
       <c r="G147" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H147" s="14">
+      <c r="H147" s="13">
         <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B148" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B148" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C148" s="8" t="s">
@@ -4545,16 +4634,16 @@
       <c r="G148" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H148" s="14">
+      <c r="H148" s="13">
         <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>28</v>
@@ -4571,16 +4660,16 @@
       <c r="G149" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H149" s="14">
+      <c r="H149" s="13">
         <v>0.6875</v>
       </c>
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="A150" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B150" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>24</v>
@@ -4597,15 +4686,15 @@
       <c r="G150" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H150" s="14">
+      <c r="H150" s="13">
         <v>0.6875</v>
       </c>
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B151" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B151" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C151" s="8" t="s">
@@ -4623,16 +4712,16 @@
       <c r="G151" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H151" s="14">
+      <c r="H151" s="13">
         <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B152" s="13" t="s">
-        <v>63</v>
+        <v>94</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C152" s="8" t="s">
         <v>32</v>
@@ -4649,16 +4738,16 @@
       <c r="G152" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H152" s="14">
+      <c r="H152" s="13">
         <v>0.4791666666666667</v>
       </c>
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B153" s="13" t="s">
         <v>94</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>32</v>
@@ -4675,16 +4764,16 @@
       <c r="G153" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H153" s="14">
+      <c r="H153" s="13">
         <v>0.5208333333333334</v>
       </c>
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>30</v>
@@ -4701,16 +4790,16 @@
       <c r="G154" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H154" s="14">
+      <c r="H154" s="13">
         <v>0.5104166666666666</v>
       </c>
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>30</v>
@@ -4727,16 +4816,16 @@
       <c r="G155" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H155" s="14">
+      <c r="H155" s="13">
         <v>0.53125</v>
       </c>
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>28</v>
@@ -4753,16 +4842,16 @@
       <c r="G156" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H156" s="14">
+      <c r="H156" s="13">
         <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>28</v>
@@ -4779,16 +4868,16 @@
       <c r="G157" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H157" s="14">
+      <c r="H157" s="13">
         <v>0.5625</v>
       </c>
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B158" s="13" t="s">
-        <v>79</v>
+        <v>94</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>24</v>
@@ -4805,16 +4894,16 @@
       <c r="G158" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H158" s="14">
+      <c r="H158" s="13">
         <v>0.5520833333333334</v>
       </c>
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B159" s="13" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="B159" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C159" s="8" t="s">
         <v>24</v>
@@ -4831,16 +4920,16 @@
       <c r="G159" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H159" s="14">
+      <c r="H159" s="13">
         <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="160" ht="14.25" customHeight="1">
       <c r="A160" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B160" s="13" t="s">
-        <v>53</v>
+        <v>99</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>32</v>
@@ -4857,16 +4946,16 @@
       <c r="G160" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H160" s="14">
+      <c r="H160" s="13">
         <v>0.3645833333333333</v>
       </c>
     </row>
     <row r="161" ht="14.25" customHeight="1">
       <c r="A161" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B161" s="13" t="s">
-        <v>66</v>
+        <v>99</v>
+      </c>
+      <c r="B161" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>32</v>
@@ -4883,16 +4972,16 @@
       <c r="G161" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H161" s="14">
+      <c r="H161" s="13">
         <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="162" ht="14.25" customHeight="1">
       <c r="A162" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B162" s="13" t="s">
-        <v>54</v>
+        <v>99</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C162" s="8" t="s">
         <v>30</v>
@@ -4909,16 +4998,16 @@
       <c r="G162" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H162" s="14">
+      <c r="H162" s="13">
         <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="163" ht="14.25" customHeight="1">
       <c r="A163" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B163" s="13" t="s">
-        <v>61</v>
+        <v>99</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C163" s="8" t="s">
         <v>30</v>
@@ -4935,16 +5024,16 @@
       <c r="G163" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H163" s="14">
+      <c r="H163" s="13">
         <v>0.4270833333333333</v>
       </c>
     </row>
     <row r="164" ht="14.25" customHeight="1">
       <c r="A164" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B164" s="13" t="s">
-        <v>61</v>
+        <v>99</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C164" s="8" t="s">
         <v>28</v>
@@ -4961,16 +5050,16 @@
       <c r="G164" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H164" s="14">
+      <c r="H164" s="13">
         <v>0.4270833333333333</v>
       </c>
     </row>
     <row r="165" ht="14.25" customHeight="1">
       <c r="A165" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>62</v>
+        <v>99</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>28</v>
@@ -4987,16 +5076,16 @@
       <c r="G165" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H165" s="14">
+      <c r="H165" s="13">
         <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="166" ht="14.25" customHeight="1">
       <c r="A166" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>58</v>
+        <v>99</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>24</v>
@@ -5013,16 +5102,16 @@
       <c r="G166" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H166" s="14">
+      <c r="H166" s="13">
         <v>0.4479166666666667</v>
       </c>
     </row>
     <row r="167" ht="14.25" customHeight="1">
       <c r="A167" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>91</v>
+        <v>99</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="C167" s="8" t="s">
         <v>24</v>
@@ -5039,16 +5128,16 @@
       <c r="G167" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H167" s="14">
+      <c r="H167" s="13">
         <v>0.6145833333333334</v>
       </c>
     </row>
     <row r="168" ht="14.25" customHeight="1">
       <c r="A168" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>63</v>
+        <v>100</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>32</v>
@@ -5065,16 +5154,16 @@
       <c r="G168" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H168" s="14">
+      <c r="H168" s="13">
         <v>0.4791666666666667</v>
       </c>
     </row>
     <row r="169" ht="14.25" customHeight="1">
       <c r="A169" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>32</v>
@@ -5091,16 +5180,16 @@
       <c r="G169" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H169" s="14">
+      <c r="H169" s="13">
         <v>0.5104166666666666</v>
       </c>
     </row>
     <row r="170" ht="14.25" customHeight="1">
       <c r="A170" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B170" s="13" t="s">
-        <v>68</v>
+        <v>100</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>30</v>
@@ -5117,16 +5206,16 @@
       <c r="G170" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H170" s="14">
+      <c r="H170" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="171" ht="14.25" customHeight="1">
       <c r="A171" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>30</v>
@@ -5143,16 +5232,16 @@
       <c r="G171" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H171" s="14">
+      <c r="H171" s="13">
         <v>0.53125</v>
       </c>
     </row>
     <row r="172" ht="14.25" customHeight="1">
       <c r="A172" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>28</v>
@@ -5169,16 +5258,16 @@
       <c r="G172" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H172" s="14">
+      <c r="H172" s="13">
         <v>0.53125</v>
       </c>
     </row>
     <row r="173" ht="14.25" customHeight="1">
       <c r="A173" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>87</v>
+        <v>100</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>28</v>
@@ -5195,16 +5284,16 @@
       <c r="G173" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H173" s="14">
+      <c r="H173" s="13">
         <v>0.0625</v>
       </c>
     </row>
     <row r="174" ht="14.25" customHeight="1">
       <c r="A174" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B174" s="13" t="s">
-        <v>79</v>
+        <v>100</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C174" s="8" t="s">
         <v>24</v>
@@ -5221,16 +5310,16 @@
       <c r="G174" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H174" s="14">
+      <c r="H174" s="13">
         <v>0.052083333333333336</v>
       </c>
     </row>
     <row r="175" ht="14.25" customHeight="1">
       <c r="A175" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B175" s="13" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="B175" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C175" s="8" t="s">
         <v>24</v>
@@ -5247,16 +5336,16 @@
       <c r="G175" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H175" s="14">
+      <c r="H175" s="13">
         <v>0.07291666666666667</v>
       </c>
     </row>
     <row r="176" ht="14.25" customHeight="1">
       <c r="A176" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B176" s="13" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>32</v>
@@ -5273,16 +5362,16 @@
       <c r="G176" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H176" s="14">
+      <c r="H176" s="13">
         <v>0.53125</v>
       </c>
     </row>
     <row r="177" ht="14.25" customHeight="1">
       <c r="A177" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>80</v>
+        <v>101</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>32</v>
@@ -5299,16 +5388,16 @@
       <c r="G177" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H177" s="14">
+      <c r="H177" s="13">
         <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="178" ht="14.25" customHeight="1">
       <c r="A178" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="C178" s="8" t="s">
         <v>30</v>
@@ -5325,16 +5414,16 @@
       <c r="G178" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H178" s="14">
+      <c r="H178" s="13">
         <v>0.5625</v>
       </c>
     </row>
     <row r="179" ht="14.25" customHeight="1">
       <c r="A179" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B179" s="13" t="s">
-        <v>88</v>
+        <v>101</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>30</v>
@@ -5351,16 +5440,16 @@
       <c r="G179" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H179" s="14">
+      <c r="H179" s="13">
         <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="180" ht="14.25" customHeight="1">
       <c r="A180" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>88</v>
+        <v>101</v>
+      </c>
+      <c r="B180" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>28</v>
@@ -5377,16 +5466,16 @@
       <c r="G180" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H180" s="14">
+      <c r="H180" s="13">
         <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="181" ht="14.25" customHeight="1">
       <c r="A181" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B181" s="13" t="s">
-        <v>91</v>
+        <v>101</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>28</v>
@@ -5403,16 +5492,16 @@
       <c r="G181" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H181" s="14">
+      <c r="H181" s="13">
         <v>0.6145833333333334</v>
       </c>
     </row>
     <row r="182" ht="14.25" customHeight="1">
       <c r="A182" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B182" s="13" t="s">
-        <v>81</v>
+        <v>101</v>
+      </c>
+      <c r="B182" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>24</v>
@@ -5429,15 +5518,15 @@
       <c r="G182" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H182" s="14">
+      <c r="H182" s="13">
         <v>0.6041666666666666</v>
       </c>
     </row>
     <row r="183" ht="14.25" customHeight="1">
       <c r="A183" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B183" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B183" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C183" s="8" t="s">
@@ -5455,16 +5544,16 @@
       <c r="G183" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H183" s="14">
+      <c r="H183" s="13">
         <v>0.6354166666666666</v>
       </c>
     </row>
     <row r="184" ht="14.25" customHeight="1">
       <c r="A184" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>32</v>
@@ -5481,16 +5570,16 @@
       <c r="G184" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H184" s="14">
+      <c r="H184" s="13">
         <v>0.53125</v>
       </c>
     </row>
     <row r="185" ht="14.25" customHeight="1">
       <c r="A185" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B185" s="13" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>32</v>
@@ -5507,16 +5596,16 @@
       <c r="G185" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H185" s="14">
+      <c r="H185" s="13">
         <v>0.5625</v>
       </c>
     </row>
     <row r="186" ht="14.25" customHeight="1">
       <c r="A186" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B186" s="13" t="s">
-        <v>79</v>
+        <v>102</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C186" s="8" t="s">
         <v>30</v>
@@ -5533,16 +5622,16 @@
       <c r="G186" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H186" s="14">
+      <c r="H186" s="13">
         <v>0.5520833333333334</v>
       </c>
     </row>
     <row r="187" ht="14.25" customHeight="1">
       <c r="A187" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B187" s="13" t="s">
-        <v>80</v>
+        <v>102</v>
+      </c>
+      <c r="B187" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>30</v>
@@ -5559,16 +5648,16 @@
       <c r="G187" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H187" s="14">
+      <c r="H187" s="13">
         <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="188" ht="14.25" customHeight="1">
       <c r="A188" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B188" s="13" t="s">
-        <v>80</v>
+        <v>102</v>
+      </c>
+      <c r="B188" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C188" s="8" t="s">
         <v>28</v>
@@ -5585,16 +5674,16 @@
       <c r="G188" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H188" s="14">
+      <c r="H188" s="13">
         <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="189" ht="14.25" customHeight="1">
       <c r="A189" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B189" s="13" t="s">
-        <v>81</v>
+        <v>102</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>28</v>
@@ -5611,16 +5700,16 @@
       <c r="G189" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H189" s="14">
+      <c r="H189" s="13">
         <v>0.6041666666666666</v>
       </c>
     </row>
     <row r="190" ht="14.25" customHeight="1">
       <c r="A190" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B190" s="13" t="s">
-        <v>74</v>
+        <v>102</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>24</v>
@@ -5637,16 +5726,16 @@
       <c r="G190" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H190" s="14">
+      <c r="H190" s="13">
         <v>0.59375</v>
       </c>
     </row>
     <row r="191" ht="14.25" customHeight="1">
       <c r="A191" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B191" s="13" t="s">
-        <v>75</v>
+        <v>102</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="C191" s="8" t="s">
         <v>24</v>
@@ -5663,16 +5752,16 @@
       <c r="G191" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H191" s="14">
+      <c r="H191" s="13">
         <v>0.625</v>
       </c>
     </row>
     <row r="192" ht="14.25" customHeight="1">
       <c r="A192" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>65</v>
+        <v>103</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>32</v>
@@ -5689,16 +5778,16 @@
       <c r="G192" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H192" s="14">
+      <c r="H192" s="13">
         <v>0.3541666666666667</v>
       </c>
     </row>
     <row r="193" ht="14.25" customHeight="1">
       <c r="A193" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B193" s="13" t="s">
-        <v>54</v>
+        <v>103</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>32</v>
@@ -5715,16 +5804,16 @@
       <c r="G193" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H193" s="14">
+      <c r="H193" s="13">
         <v>0.3854166666666667</v>
       </c>
     </row>
     <row r="194" ht="14.25" customHeight="1">
       <c r="A194" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B194" s="13" t="s">
-        <v>84</v>
+        <v>103</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="C194" s="8" t="s">
         <v>30</v>
@@ -5741,16 +5830,16 @@
       <c r="G194" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H194" s="14">
+      <c r="H194" s="13">
         <v>0.375</v>
       </c>
     </row>
     <row r="195" ht="14.25" customHeight="1">
       <c r="A195" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B195" s="13" t="s">
-        <v>56</v>
+        <v>103</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>30</v>
@@ -5767,16 +5856,16 @@
       <c r="G195" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H195" s="14">
+      <c r="H195" s="13">
         <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="196" ht="14.25" customHeight="1">
       <c r="A196" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B196" s="13" t="s">
-        <v>55</v>
+        <v>103</v>
+      </c>
+      <c r="B196" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>28</v>
@@ -5793,16 +5882,16 @@
       <c r="G196" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H196" s="14">
+      <c r="H196" s="13">
         <v>0.40625</v>
       </c>
     </row>
     <row r="197" ht="14.25" customHeight="1">
       <c r="A197" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B197" s="13" t="s">
-        <v>61</v>
+        <v>103</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>28</v>
@@ -5819,16 +5908,16 @@
       <c r="G197" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H197" s="14">
+      <c r="H197" s="13">
         <v>0.4270833333333333</v>
       </c>
     </row>
     <row r="198" ht="14.25" customHeight="1">
       <c r="A198" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B198" s="13" t="s">
-        <v>56</v>
+        <v>103</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>24</v>
@@ -5845,16 +5934,16 @@
       <c r="G198" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H198" s="14">
+      <c r="H198" s="13">
         <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="199" ht="14.25" customHeight="1">
       <c r="A199" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B199" s="13" t="s">
-        <v>62</v>
+        <v>103</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>24</v>
@@ -5871,16 +5960,16 @@
       <c r="G199" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H199" s="14">
+      <c r="H199" s="13">
         <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="200" ht="14.25" customHeight="1">
       <c r="A200" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B200" s="13" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C200" s="8" t="s">
         <v>32</v>
@@ -5897,16 +5986,16 @@
       <c r="G200" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H200" s="14">
+      <c r="H200" s="13">
         <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="201" ht="14.25" customHeight="1">
       <c r="A201" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B201" s="13" t="s">
-        <v>88</v>
+        <v>104</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>32</v>
@@ -5923,16 +6012,16 @@
       <c r="G201" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H201" s="14">
+      <c r="H201" s="13">
         <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="202" ht="14.25" customHeight="1">
       <c r="A202" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B202" s="13" t="s">
-        <v>80</v>
+        <v>104</v>
+      </c>
+      <c r="B202" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>30</v>
@@ -5949,16 +6038,16 @@
       <c r="G202" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H202" s="14">
+      <c r="H202" s="13">
         <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="203" ht="14.25" customHeight="1">
       <c r="A203" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B203" s="13" t="s">
-        <v>91</v>
+        <v>104</v>
+      </c>
+      <c r="B203" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>30</v>
@@ -5975,16 +6064,16 @@
       <c r="G203" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H203" s="14">
+      <c r="H203" s="13">
         <v>0.6145833333333334</v>
       </c>
     </row>
     <row r="204" ht="14.25" customHeight="1">
       <c r="A204" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B204" s="13" t="s">
-        <v>81</v>
+        <v>104</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>28</v>
@@ -6001,16 +6090,16 @@
       <c r="G204" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H204" s="14">
+      <c r="H204" s="13">
         <v>0.6041666666666666</v>
       </c>
     </row>
     <row r="205" ht="14.25" customHeight="1">
       <c r="A205" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B205" s="13" t="s">
         <v>104</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>28</v>
@@ -6027,16 +6116,16 @@
       <c r="G205" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H205" s="14">
+      <c r="H205" s="13">
         <v>0.65625</v>
       </c>
     </row>
     <row r="206" ht="14.25" customHeight="1">
       <c r="A206" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B206" s="13" t="s">
-        <v>82</v>
+        <v>104</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>24</v>
@@ -6053,16 +6142,16 @@
       <c r="G206" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H206" s="14">
+      <c r="H206" s="13">
         <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="207" ht="14.25" customHeight="1">
       <c r="A207" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B207" s="13" t="s">
-        <v>92</v>
+        <v>104</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>24</v>
@@ -6079,19 +6168,19 @@
       <c r="G207" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H207" s="14">
+      <c r="H207" s="13">
         <v>0.6875</v>
       </c>
-      <c r="I207" s="16" t="s">
-        <v>105</v>
+      <c r="I207" s="15" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="208" ht="14.25" customHeight="1">
       <c r="A208" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B208" s="13" t="s">
         <v>107</v>
+      </c>
+      <c r="B208" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>24</v>
@@ -6108,16 +6197,16 @@
       <c r="G208" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H208" s="14">
+      <c r="H208" s="13">
         <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="209" ht="14.25" customHeight="1">
       <c r="A209" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B209" s="13" t="s">
         <v>109</v>
+      </c>
+      <c r="B209" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>24</v>
@@ -6134,648 +6223,648 @@
       <c r="G209" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H209" s="14">
+      <c r="H209" s="13">
         <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="A210" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B210" s="18"/>
-      <c r="C210" s="19">
+      <c r="A210" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B210" s="17"/>
+      <c r="C210" s="18">
         <v>2189767.0</v>
       </c>
-      <c r="D210" s="19" t="s">
+      <c r="D210" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E210" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F210" s="19"/>
+      <c r="G210" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H210" s="9"/>
+    </row>
+    <row r="211" ht="14.25" customHeight="1">
+      <c r="A211" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E210" s="19" t="s">
+      <c r="B211" s="17"/>
+      <c r="C211" s="18">
+        <v>2189740.0</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E211" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F210" s="20"/>
-      <c r="G210" s="19" t="s">
+      <c r="F211" s="19"/>
+      <c r="G211" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H210" s="9"/>
-    </row>
-    <row r="211" ht="14.25" customHeight="1">
-      <c r="A211" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B211" s="18"/>
-      <c r="C211" s="19">
+      <c r="H211" s="9"/>
+    </row>
+    <row r="212" ht="14.25" customHeight="1">
+      <c r="A212" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B212" s="17"/>
+      <c r="C212" s="18">
+        <v>2189762.0</v>
+      </c>
+      <c r="D212" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E212" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F212" s="19"/>
+      <c r="G212" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H212" s="9"/>
+    </row>
+    <row r="213" ht="14.25" customHeight="1">
+      <c r="A213" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B213" s="17"/>
+      <c r="C213" s="18">
+        <v>2186481.0</v>
+      </c>
+      <c r="D213" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E213" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F213" s="19"/>
+      <c r="G213" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H213" s="9"/>
+    </row>
+    <row r="214" ht="14.25" customHeight="1">
+      <c r="A214" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B214" s="17"/>
+      <c r="C214" s="18">
+        <v>2186466.0</v>
+      </c>
+      <c r="D214" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E214" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F214" s="19"/>
+      <c r="G214" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H214" s="9"/>
+    </row>
+    <row r="215" ht="14.25" customHeight="1">
+      <c r="A215" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B215" s="17"/>
+      <c r="C215" s="18">
+        <v>2186465.0</v>
+      </c>
+      <c r="D215" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E215" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F215" s="19"/>
+      <c r="G215" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H215" s="9"/>
+    </row>
+    <row r="216" ht="14.25" customHeight="1">
+      <c r="A216" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B216" s="17"/>
+      <c r="C216" s="18">
+        <v>2186474.0</v>
+      </c>
+      <c r="D216" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E216" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F216" s="19"/>
+      <c r="G216" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H216" s="9"/>
+    </row>
+    <row r="217" ht="14.25" customHeight="1">
+      <c r="A217" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B217" s="17"/>
+      <c r="C217" s="18">
+        <v>2186472.0</v>
+      </c>
+      <c r="D217" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E217" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F217" s="19"/>
+      <c r="G217" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H217" s="9"/>
+    </row>
+    <row r="218" ht="14.25" customHeight="1">
+      <c r="A218" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B218" s="17"/>
+      <c r="C218" s="18">
+        <v>2186467.0</v>
+      </c>
+      <c r="D218" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E218" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F218" s="19"/>
+      <c r="G218" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H218" s="9"/>
+    </row>
+    <row r="219" ht="14.25" customHeight="1">
+      <c r="A219" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B219" s="17"/>
+      <c r="C219" s="18">
+        <v>2186469.0</v>
+      </c>
+      <c r="D219" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E219" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F219" s="19"/>
+      <c r="G219" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H219" s="9"/>
+    </row>
+    <row r="220" ht="14.25" customHeight="1">
+      <c r="A220" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B220" s="17"/>
+      <c r="C220" s="18">
+        <v>2186482.0</v>
+      </c>
+      <c r="D220" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E220" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F220" s="19"/>
+      <c r="G220" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H220" s="9"/>
+    </row>
+    <row r="221" ht="14.25" customHeight="1">
+      <c r="A221" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B221" s="17"/>
+      <c r="C221" s="18">
+        <v>2186476.0</v>
+      </c>
+      <c r="D221" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E221" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F221" s="20"/>
+      <c r="G221" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H221" s="9"/>
+    </row>
+    <row r="222" ht="14.25" customHeight="1">
+      <c r="A222" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B222" s="17"/>
+      <c r="C222" s="18">
+        <v>2186477.0</v>
+      </c>
+      <c r="D222" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E222" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F222" s="20"/>
+      <c r="G222" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H222" s="9"/>
+    </row>
+    <row r="223" ht="14.25" customHeight="1">
+      <c r="A223" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B223" s="22"/>
+      <c r="C223" s="23">
+        <v>2.1839228E7</v>
+      </c>
+      <c r="D223" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F223" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G223" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H223" s="9"/>
+    </row>
+    <row r="224" ht="14.25" customHeight="1">
+      <c r="A224" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B224" s="22"/>
+      <c r="C224" s="23">
+        <v>2.1839227E7</v>
+      </c>
+      <c r="D224" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F224" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G224" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H224" s="9"/>
+    </row>
+    <row r="225" ht="14.25" customHeight="1">
+      <c r="A225" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B225" s="22"/>
+      <c r="C225" s="23">
+        <v>2.1821229E7</v>
+      </c>
+      <c r="D225" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F225" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G225" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H225" s="9"/>
+    </row>
+    <row r="226" ht="14.25" customHeight="1">
+      <c r="A226" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B226" s="17"/>
+      <c r="C226" s="18">
+        <v>2186481.0</v>
+      </c>
+      <c r="D226" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E226" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F226" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G226" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H226" s="9"/>
+    </row>
+    <row r="227" ht="14.25" customHeight="1">
+      <c r="A227" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B227" s="17"/>
+      <c r="C227" s="18">
+        <v>2186466.0</v>
+      </c>
+      <c r="D227" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E227" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F227" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G227" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H227" s="9"/>
+    </row>
+    <row r="228" ht="14.25" customHeight="1">
+      <c r="A228" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B228" s="17"/>
+      <c r="C228" s="18">
         <v>2189740.0</v>
       </c>
-      <c r="D211" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E211" s="19" t="s">
+      <c r="D228" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E228" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F211" s="20"/>
-      <c r="G211" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H211" s="9"/>
-    </row>
-    <row r="212" ht="14.25" customHeight="1">
-      <c r="A212" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B212" s="18"/>
-      <c r="C212" s="19">
-        <v>2189762.0</v>
-      </c>
-      <c r="D212" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E212" s="19" t="s">
+      <c r="F228" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G228" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H228" s="9"/>
+    </row>
+    <row r="229" ht="14.25" customHeight="1">
+      <c r="A229" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C229" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D229" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E229" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F229" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G229" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H229" s="13">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="230" ht="14.25" customHeight="1">
+      <c r="A230" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C230" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D230" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E230" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F230" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G230" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H230" s="13">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="231" ht="14.25" customHeight="1">
+      <c r="A231" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C231" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D231" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E231" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F231" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G231" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H231" s="13">
+        <v>0.3958333333333333</v>
+      </c>
+    </row>
+    <row r="232" ht="14.25" customHeight="1">
+      <c r="A232" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C232" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E232" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F232" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G232" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H232" s="13">
+        <v>0.4270833333333333</v>
+      </c>
+    </row>
+    <row r="233" ht="14.25" customHeight="1">
+      <c r="A233" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C233" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E233" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F233" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G233" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H233" s="13">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="234" ht="14.25" customHeight="1">
+      <c r="A234" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C234" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E234" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F234" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G234" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H234" s="13">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="235" ht="14.25" customHeight="1">
+      <c r="A235" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C235" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D235" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E235" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F235" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G235" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H235" s="13">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="236" ht="14.25" customHeight="1">
+      <c r="A236" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C236" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D236" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E236" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F236" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G236" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H236" s="13">
+        <v>0.4895833333333333</v>
+      </c>
+    </row>
+    <row r="237" ht="14.25" customHeight="1">
+      <c r="A237" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B237" s="11"/>
+      <c r="C237" s="18">
+        <v>2186482.0</v>
+      </c>
+      <c r="D237" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E237" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F212" s="20"/>
-      <c r="G212" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H212" s="9"/>
-    </row>
-    <row r="213" ht="14.25" customHeight="1">
-      <c r="A213" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B213" s="18"/>
-      <c r="C213" s="19">
-        <v>2186481.0</v>
-      </c>
-      <c r="D213" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E213" s="19" t="s">
+      <c r="F237" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G237" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H237" s="12"/>
+    </row>
+    <row r="238" ht="14.25" customHeight="1">
+      <c r="A238" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B238" s="11"/>
+      <c r="C238" s="18">
+        <v>2186477.0</v>
+      </c>
+      <c r="D238" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E238" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F213" s="20"/>
-      <c r="G213" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H213" s="9"/>
-    </row>
-    <row r="214" ht="14.25" customHeight="1">
-      <c r="A214" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B214" s="18"/>
-      <c r="C214" s="19">
-        <v>2186466.0</v>
-      </c>
-      <c r="D214" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E214" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F214" s="20"/>
-      <c r="G214" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H214" s="9"/>
-    </row>
-    <row r="215" ht="14.25" customHeight="1">
-      <c r="A215" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B215" s="18"/>
-      <c r="C215" s="19">
-        <v>2186465.0</v>
-      </c>
-      <c r="D215" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E215" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F215" s="20"/>
-      <c r="G215" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H215" s="9"/>
-    </row>
-    <row r="216" ht="14.25" customHeight="1">
-      <c r="A216" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B216" s="18"/>
-      <c r="C216" s="19">
-        <v>2186474.0</v>
-      </c>
-      <c r="D216" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E216" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F216" s="20"/>
-      <c r="G216" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H216" s="9"/>
-    </row>
-    <row r="217" ht="14.25" customHeight="1">
-      <c r="A217" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B217" s="18"/>
-      <c r="C217" s="19">
-        <v>2186472.0</v>
-      </c>
-      <c r="D217" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E217" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F217" s="20"/>
-      <c r="G217" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H217" s="9"/>
-    </row>
-    <row r="218" ht="14.25" customHeight="1">
-      <c r="A218" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B218" s="18"/>
-      <c r="C218" s="19">
-        <v>2186467.0</v>
-      </c>
-      <c r="D218" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E218" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F218" s="20"/>
-      <c r="G218" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H218" s="9"/>
-    </row>
-    <row r="219" ht="14.25" customHeight="1">
-      <c r="A219" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B219" s="18"/>
-      <c r="C219" s="19">
-        <v>2186469.0</v>
-      </c>
-      <c r="D219" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E219" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F219" s="20"/>
-      <c r="G219" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H219" s="9"/>
-    </row>
-    <row r="220" ht="14.25" customHeight="1">
-      <c r="A220" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B220" s="18"/>
-      <c r="C220" s="19">
-        <v>2186482.0</v>
-      </c>
-      <c r="D220" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E220" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F220" s="20"/>
-      <c r="G220" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H220" s="9"/>
-    </row>
-    <row r="221" ht="14.25" customHeight="1">
-      <c r="A221" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B221" s="18"/>
-      <c r="C221" s="19">
-        <v>2186476.0</v>
-      </c>
-      <c r="D221" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E221" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F221" s="21"/>
-      <c r="G221" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H221" s="9"/>
-    </row>
-    <row r="222" ht="14.25" customHeight="1">
-      <c r="A222" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B222" s="18"/>
-      <c r="C222" s="19">
-        <v>2186477.0</v>
-      </c>
-      <c r="D222" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E222" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F222" s="21"/>
-      <c r="G222" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="H222" s="9"/>
-    </row>
-    <row r="223" ht="14.25" customHeight="1">
-      <c r="A223" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B223" s="23"/>
-      <c r="C223" s="24">
-        <v>2.1839228E7</v>
-      </c>
-      <c r="D223" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E223" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F223" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G223" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H223" s="9"/>
-    </row>
-    <row r="224" ht="14.25" customHeight="1">
-      <c r="A224" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B224" s="23"/>
-      <c r="C224" s="24">
-        <v>2.1839227E7</v>
-      </c>
-      <c r="D224" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E224" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F224" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G224" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H224" s="9"/>
-    </row>
-    <row r="225" ht="14.25" customHeight="1">
-      <c r="A225" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B225" s="23"/>
-      <c r="C225" s="24">
-        <v>2.1821229E7</v>
-      </c>
-      <c r="D225" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E225" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F225" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G225" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="H225" s="9"/>
-    </row>
-    <row r="226" ht="14.25" customHeight="1">
-      <c r="A226" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B226" s="18"/>
-      <c r="C226" s="19">
-        <v>2186481.0</v>
-      </c>
-      <c r="D226" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E226" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F226" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="G226" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H226" s="9"/>
-    </row>
-    <row r="227" ht="14.25" customHeight="1">
-      <c r="A227" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B227" s="18"/>
-      <c r="C227" s="19">
-        <v>2186466.0</v>
-      </c>
-      <c r="D227" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E227" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F227" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G227" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H227" s="9"/>
-    </row>
-    <row r="228" ht="14.25" customHeight="1">
-      <c r="A228" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B228" s="18"/>
-      <c r="C228" s="19">
-        <v>2189740.0</v>
-      </c>
-      <c r="D228" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E228" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F228" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G228" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H228" s="9"/>
-    </row>
-    <row r="229" ht="14.25" customHeight="1">
-      <c r="A229" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B229" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C229" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D229" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E229" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F229" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H229" s="14">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="230" ht="14.25" customHeight="1">
-      <c r="A230" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B230" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C230" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D230" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E230" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F230" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G230" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H230" s="14">
-        <v>0.40625</v>
-      </c>
-    </row>
-    <row r="231" ht="14.25" customHeight="1">
-      <c r="A231" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B231" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C231" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D231" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E231" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F231" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G231" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H231" s="14">
-        <v>0.3958333333333333</v>
-      </c>
-    </row>
-    <row r="232" ht="14.25" customHeight="1">
-      <c r="A232" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B232" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C232" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D232" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E232" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F232" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G232" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H232" s="14">
-        <v>0.4270833333333333</v>
-      </c>
-    </row>
-    <row r="233" ht="14.25" customHeight="1">
-      <c r="A233" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B233" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C233" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D233" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E233" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F233" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G233" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H233" s="14">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="234" ht="14.25" customHeight="1">
-      <c r="A234" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B234" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C234" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D234" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E234" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F234" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G234" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H234" s="14">
-        <v>0.46875</v>
-      </c>
-    </row>
-    <row r="235" ht="14.25" customHeight="1">
-      <c r="A235" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B235" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C235" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D235" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E235" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F235" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G235" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H235" s="14">
-        <v>0.46875</v>
-      </c>
-    </row>
-    <row r="236" ht="14.25" customHeight="1">
-      <c r="A236" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B236" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C236" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D236" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E236" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F236" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G236" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H236" s="14">
-        <v>0.4895833333333333</v>
-      </c>
-    </row>
-    <row r="237" ht="14.25" customHeight="1">
-      <c r="A237" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B237" s="13"/>
-      <c r="C237" s="19">
-        <v>2186482.0</v>
-      </c>
-      <c r="D237" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E237" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F237" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="G237" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H237" s="12"/>
-    </row>
-    <row r="238" ht="14.25" customHeight="1">
-      <c r="A238" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B238" s="13"/>
-      <c r="C238" s="19">
-        <v>2186477.0</v>
-      </c>
-      <c r="D238" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E238" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="F238" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G238" s="8" t="s">
         <v>26</v>
@@ -6784,20 +6873,20 @@
     </row>
     <row r="239" ht="14.25" customHeight="1">
       <c r="A239" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B239" s="26"/>
+        <v>121</v>
+      </c>
+      <c r="B239" s="6"/>
       <c r="C239" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E239" s="8" t="s">
         <v>49</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G239" s="8" t="s">
         <v>26</v>
@@ -6806,9 +6895,9 @@
     </row>
     <row r="240" ht="14.25" customHeight="1">
       <c r="A240" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B240" s="26"/>
+        <v>124</v>
+      </c>
+      <c r="B240" s="6"/>
       <c r="C240" s="8">
         <v>1094117.0</v>
       </c>
@@ -6824,9 +6913,9 @@
     </row>
     <row r="241" ht="14.25" customHeight="1">
       <c r="A241" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B241" s="26"/>
+        <v>124</v>
+      </c>
+      <c r="B241" s="6"/>
       <c r="C241" s="8">
         <v>1094126.0</v>
       </c>
@@ -6842,9 +6931,9 @@
     </row>
     <row r="242" ht="14.25" customHeight="1">
       <c r="A242" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B242" s="26"/>
+        <v>124</v>
+      </c>
+      <c r="B242" s="6"/>
       <c r="C242" s="8">
         <v>1094111.0</v>
       </c>
@@ -6860,215 +6949,215 @@
     </row>
     <row r="243" ht="14.25" customHeight="1">
       <c r="A243" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B243" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C243" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C243" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D243" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E243" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F243" s="19" t="s">
+      <c r="D243" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E243" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F243" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G243" s="19" t="s">
+      <c r="G243" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H243" s="14">
+      <c r="H243" s="13">
         <v>0.4895833333333333</v>
       </c>
     </row>
     <row r="244" ht="14.25" customHeight="1">
       <c r="A244" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B244" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C244" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C244" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D244" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E244" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F244" s="19" t="s">
+      <c r="D244" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E244" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F244" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G244" s="19" t="s">
+      <c r="G244" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H244" s="14">
+      <c r="H244" s="13">
         <v>0.53125</v>
       </c>
     </row>
     <row r="245" ht="14.25" customHeight="1">
       <c r="A245" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B245" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C245" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C245" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D245" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E245" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F245" s="19" t="s">
+      <c r="D245" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E245" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F245" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G245" s="19" t="s">
+      <c r="G245" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H245" s="14">
+      <c r="H245" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="246" ht="14.25" customHeight="1">
       <c r="A246" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B246" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C246" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C246" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D246" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E246" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F246" s="19" t="s">
+      <c r="D246" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E246" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F246" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G246" s="19" t="s">
+      <c r="G246" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H246" s="14">
+      <c r="H246" s="13">
         <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="247" ht="14.25" customHeight="1">
       <c r="A247" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B247" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C247" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C247" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D247" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E247" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F247" s="19" t="s">
+      <c r="D247" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E247" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F247" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G247" s="19" t="s">
+      <c r="G247" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H247" s="14">
+      <c r="H247" s="13">
         <v>0.6145833333333334</v>
       </c>
     </row>
     <row r="248" ht="14.25" customHeight="1">
       <c r="A248" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B248" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C248" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C248" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D248" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E248" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F248" s="19" t="s">
+      <c r="D248" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E248" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F248" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G248" s="19" t="s">
+      <c r="G248" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H248" s="14">
+      <c r="H248" s="13">
         <v>0.65625</v>
       </c>
     </row>
     <row r="249" ht="14.25" customHeight="1">
       <c r="A249" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B249" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C249" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C249" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D249" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E249" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F249" s="22" t="s">
+      <c r="D249" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E249" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F249" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G249" s="22" t="s">
+      <c r="G249" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H249" s="14">
+      <c r="H249" s="13">
         <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="250" ht="14.25" customHeight="1">
       <c r="A250" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B250" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C250" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C250" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D250" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E250" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F250" s="22" t="s">
+      <c r="D250" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E250" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F250" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G250" s="22" t="s">
+      <c r="G250" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H250" s="14">
+      <c r="H250" s="13">
         <v>0.6875</v>
       </c>
     </row>
     <row r="251" ht="14.25" customHeight="1">
       <c r="A251" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B251" s="11"/>
       <c r="C251" s="8">
@@ -7083,12 +7172,12 @@
         <v>14</v>
       </c>
       <c r="H251" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="252" ht="14.25" customHeight="1">
       <c r="A252" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B252" s="11"/>
       <c r="C252" s="8">
@@ -7103,12 +7192,12 @@
         <v>14</v>
       </c>
       <c r="H252" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="253" ht="14.25" customHeight="1">
       <c r="A253" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B253" s="11"/>
       <c r="C253" s="8">
@@ -7123,12 +7212,12 @@
         <v>14</v>
       </c>
       <c r="H253" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="254" ht="14.25" customHeight="1">
       <c r="A254" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B254" s="11"/>
       <c r="C254" s="8">
@@ -7143,12 +7232,12 @@
         <v>14</v>
       </c>
       <c r="H254" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="255" ht="14.25" customHeight="1">
       <c r="A255" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B255" s="11"/>
       <c r="C255" s="8">
@@ -7163,12 +7252,12 @@
         <v>14</v>
       </c>
       <c r="H255" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="256" ht="14.25" customHeight="1">
       <c r="A256" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B256" s="11"/>
       <c r="C256" s="8">
@@ -7183,1181 +7272,1931 @@
         <v>14</v>
       </c>
       <c r="H256" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="257" ht="14.25" customHeight="1">
       <c r="A257" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B257" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C257" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B257" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C257" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D257" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E257" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F257" s="19" t="s">
+      <c r="D257" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E257" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F257" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G257" s="19" t="s">
+      <c r="G257" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H257" s="14">
+      <c r="H257" s="13">
         <v>0.3958333333333333</v>
       </c>
     </row>
     <row r="258" ht="14.25" customHeight="1">
       <c r="A258" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B258" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C258" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B258" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C258" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D258" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E258" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F258" s="19" t="s">
+      <c r="D258" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E258" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F258" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G258" s="19" t="s">
+      <c r="G258" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H258" s="14">
+      <c r="H258" s="13">
         <v>0.4270833333333333</v>
       </c>
     </row>
     <row r="259" ht="14.25" customHeight="1">
       <c r="A259" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B259" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C259" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B259" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C259" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D259" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E259" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F259" s="19" t="s">
+      <c r="D259" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E259" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F259" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G259" s="19" t="s">
+      <c r="G259" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H259" s="14">
+      <c r="H259" s="13">
         <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="260" ht="14.25" customHeight="1">
       <c r="A260" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B260" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C260" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B260" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C260" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D260" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E260" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F260" s="19" t="s">
+      <c r="D260" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E260" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F260" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G260" s="19" t="s">
+      <c r="G260" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H260" s="14">
+      <c r="H260" s="13">
         <v>0.4479166666666667</v>
       </c>
     </row>
     <row r="261" ht="14.25" customHeight="1">
       <c r="A261" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B261" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C261" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B261" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C261" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D261" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E261" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F261" s="19" t="s">
+      <c r="D261" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E261" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F261" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G261" s="19" t="s">
+      <c r="G261" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H261" s="14">
+      <c r="H261" s="13">
         <v>0.4479166666666667</v>
       </c>
     </row>
     <row r="262" ht="14.25" customHeight="1">
       <c r="A262" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B262" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C262" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B262" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C262" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D262" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E262" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F262" s="19" t="s">
+      <c r="D262" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E262" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F262" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G262" s="19" t="s">
+      <c r="G262" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H262" s="14">
+      <c r="H262" s="13">
         <v>0.46875</v>
       </c>
     </row>
     <row r="263" ht="14.25" customHeight="1">
       <c r="A263" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B263" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C263" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B263" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C263" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D263" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E263" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F263" s="22" t="s">
+      <c r="D263" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E263" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F263" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G263" s="22" t="s">
+      <c r="G263" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H263" s="14">
+      <c r="H263" s="13">
         <v>0.46875</v>
       </c>
     </row>
     <row r="264" ht="14.25" customHeight="1">
       <c r="A264" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B264" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C264" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B264" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C264" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D264" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E264" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F264" s="22" t="s">
+      <c r="D264" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E264" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F264" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G264" s="22" t="s">
+      <c r="G264" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H264" s="14">
+      <c r="H264" s="13">
         <v>0.4791666666666667</v>
       </c>
     </row>
     <row r="265" ht="14.25" customHeight="1">
       <c r="A265" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B265" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C265" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B265" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C265" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D265" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E265" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F265" s="19" t="s">
+      <c r="D265" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E265" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F265" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G265" s="19" t="s">
+      <c r="G265" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H265" s="14">
+      <c r="H265" s="13">
         <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="266" ht="14.25" customHeight="1">
       <c r="A266" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B266" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C266" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B266" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C266" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D266" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E266" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F266" s="19" t="s">
+      <c r="D266" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E266" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F266" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G266" s="19" t="s">
+      <c r="G266" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H266" s="14">
+      <c r="H266" s="13">
         <v>0.5625</v>
       </c>
     </row>
     <row r="267" ht="14.25" customHeight="1">
       <c r="A267" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B267" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C267" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B267" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C267" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D267" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E267" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F267" s="19" t="s">
+      <c r="D267" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E267" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F267" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G267" s="19" t="s">
+      <c r="G267" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H267" s="14">
+      <c r="H267" s="13">
         <v>0.5520833333333334</v>
       </c>
     </row>
     <row r="268" ht="14.25" customHeight="1">
       <c r="A268" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B268" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C268" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B268" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C268" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D268" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E268" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F268" s="19" t="s">
+      <c r="D268" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E268" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F268" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G268" s="19" t="s">
+      <c r="G268" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H268" s="14">
+      <c r="H268" s="13">
         <v>0.5625</v>
       </c>
     </row>
     <row r="269" ht="14.25" customHeight="1">
       <c r="A269" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B269" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C269" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B269" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C269" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D269" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E269" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F269" s="19" t="s">
+      <c r="D269" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E269" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F269" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G269" s="19" t="s">
+      <c r="G269" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H269" s="14">
+      <c r="H269" s="13">
         <v>0.5625</v>
       </c>
     </row>
     <row r="270" ht="14.25" customHeight="1">
       <c r="A270" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B270" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C270" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B270" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C270" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D270" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E270" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F270" s="19" t="s">
+      <c r="D270" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E270" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F270" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G270" s="19" t="s">
+      <c r="G270" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H270" s="14">
+      <c r="H270" s="13">
         <v>0.5729166666666666</v>
       </c>
     </row>
     <row r="271" ht="14.25" customHeight="1">
       <c r="A271" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B271" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C271" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B271" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C271" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D271" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E271" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F271" s="22" t="s">
+      <c r="D271" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E271" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G271" s="22" t="s">
+      <c r="G271" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H271" s="14">
+      <c r="H271" s="13">
         <v>0.5625</v>
       </c>
     </row>
     <row r="272" ht="14.25" customHeight="1">
       <c r="A272" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B272" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C272" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B272" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C272" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D272" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E272" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F272" s="22" t="s">
+      <c r="D272" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E272" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F272" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G272" s="22" t="s">
+      <c r="G272" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H272" s="14">
+      <c r="H272" s="13">
         <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="273" ht="14.25" customHeight="1">
       <c r="A273" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B273" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C273" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B273" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C273" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D273" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E273" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F273" s="19" t="s">
+      <c r="D273" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E273" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F273" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G273" s="19" t="s">
+      <c r="G273" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H273" s="14">
+      <c r="H273" s="13">
         <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="274" ht="14.25" customHeight="1">
       <c r="A274" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B274" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C274" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B274" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C274" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D274" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E274" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F274" s="19" t="s">
+      <c r="D274" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E274" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F274" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G274" s="19" t="s">
+      <c r="G274" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H274" s="14">
+      <c r="H274" s="13">
         <v>0.4479166666666667</v>
       </c>
     </row>
     <row r="275" ht="14.25" customHeight="1">
       <c r="A275" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B275" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C275" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C275" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D275" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E275" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F275" s="19" t="s">
+      <c r="D275" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E275" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F275" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G275" s="19" t="s">
+      <c r="G275" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H275" s="14">
+      <c r="H275" s="13">
         <v>0.4375</v>
       </c>
     </row>
     <row r="276" ht="14.25" customHeight="1">
       <c r="A276" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B276" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C276" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C276" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D276" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E276" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F276" s="19" t="s">
+      <c r="D276" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E276" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F276" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G276" s="19" t="s">
+      <c r="G276" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H276" s="14">
+      <c r="H276" s="13">
         <v>0.46875</v>
       </c>
     </row>
     <row r="277" ht="14.25" customHeight="1">
       <c r="A277" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B277" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C277" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C277" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D277" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E277" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F277" s="19" t="s">
+      <c r="D277" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E277" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F277" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G277" s="19" t="s">
+      <c r="G277" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H277" s="14">
+      <c r="H277" s="13">
         <v>0.46875</v>
       </c>
     </row>
     <row r="278" ht="14.25" customHeight="1">
       <c r="A278" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B278" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C278" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C278" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D278" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E278" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F278" s="19" t="s">
+      <c r="D278" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E278" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F278" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G278" s="19" t="s">
+      <c r="G278" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H278" s="14">
+      <c r="H278" s="13">
         <v>0.5</v>
       </c>
     </row>
     <row r="279" ht="14.25" customHeight="1">
       <c r="A279" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B279" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C279" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C279" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D279" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E279" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F279" s="22" t="s">
+      <c r="D279" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E279" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G279" s="22" t="s">
+      <c r="G279" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H279" s="14">
+      <c r="H279" s="13">
         <v>0.4895833333333333</v>
       </c>
     </row>
     <row r="280" ht="14.25" customHeight="1">
       <c r="A280" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B280" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C280" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C280" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D280" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E280" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F280" s="22" t="s">
+      <c r="D280" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E280" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F280" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G280" s="22" t="s">
+      <c r="G280" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H280" s="14">
+      <c r="H280" s="13">
         <v>0.5208333333333334</v>
       </c>
     </row>
     <row r="281" ht="14.25" customHeight="1">
-      <c r="A281" s="5"/>
-      <c r="B281" s="6"/>
-      <c r="C281" s="7"/>
-      <c r="D281" s="7"/>
-      <c r="E281" s="7"/>
-      <c r="F281" s="7"/>
-      <c r="G281" s="7"/>
-      <c r="H281" s="9"/>
+      <c r="A281" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B281" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C281" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E281" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F281" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H281" s="12" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="282" ht="14.25" customHeight="1">
-      <c r="A282" s="5"/>
-      <c r="B282" s="6"/>
-      <c r="C282" s="7"/>
-      <c r="D282" s="7"/>
-      <c r="E282" s="7"/>
-      <c r="F282" s="7"/>
-      <c r="G282" s="7"/>
+      <c r="A282" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B282" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C282" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D282" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E282" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F282" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G282" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H282" s="9"/>
     </row>
     <row r="283" ht="14.25" customHeight="1">
-      <c r="A283" s="5"/>
-      <c r="B283" s="6"/>
-      <c r="C283" s="7"/>
-      <c r="D283" s="7"/>
-      <c r="E283" s="7"/>
-      <c r="F283" s="7"/>
-      <c r="G283" s="7"/>
+      <c r="A283" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B283" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C283" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D283" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E283" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F283" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G283" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H283" s="9"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
-      <c r="A284" s="5"/>
-      <c r="B284" s="6"/>
-      <c r="C284" s="7"/>
-      <c r="D284" s="7"/>
-      <c r="E284" s="7"/>
-      <c r="F284" s="7"/>
-      <c r="G284" s="7"/>
-      <c r="H284" s="9"/>
+      <c r="A284" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B284" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C284" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D284" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E284" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F284" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G284" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H284" s="12" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="285" ht="14.25" customHeight="1">
-      <c r="A285" s="5"/>
-      <c r="B285" s="6"/>
-      <c r="C285" s="7"/>
-      <c r="D285" s="7"/>
-      <c r="E285" s="7"/>
-      <c r="F285" s="7"/>
-      <c r="G285" s="7"/>
+      <c r="A285" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C285" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D285" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E285" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G285" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H285" s="9"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
-      <c r="A286" s="5"/>
-      <c r="B286" s="6"/>
-      <c r="C286" s="7"/>
-      <c r="D286" s="7"/>
-      <c r="E286" s="7"/>
-      <c r="F286" s="7"/>
-      <c r="G286" s="7"/>
-      <c r="H286" s="9"/>
+      <c r="A286" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C286" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E286" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G286" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H286" s="12" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="287" ht="14.25" customHeight="1">
-      <c r="A287" s="5"/>
-      <c r="B287" s="6"/>
-      <c r="C287" s="7"/>
-      <c r="D287" s="7"/>
-      <c r="E287" s="7"/>
-      <c r="F287" s="7"/>
-      <c r="G287" s="7"/>
-      <c r="H287" s="9"/>
+      <c r="A287" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C287" s="8">
+        <v>2.1821227E7</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E287" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F287" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G287" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H287" s="12" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="288" ht="14.25" customHeight="1">
-      <c r="A288" s="5"/>
-      <c r="B288" s="6"/>
-      <c r="C288" s="7"/>
-      <c r="D288" s="7"/>
-      <c r="E288" s="7"/>
-      <c r="F288" s="7"/>
-      <c r="G288" s="7"/>
+      <c r="A288" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C288" s="8">
+        <v>2.1821227E7</v>
+      </c>
+      <c r="D288" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F288" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G288" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H288" s="9"/>
     </row>
     <row r="289" ht="14.25" customHeight="1">
-      <c r="A289" s="5"/>
-      <c r="B289" s="6"/>
-      <c r="C289" s="7"/>
-      <c r="D289" s="7"/>
-      <c r="E289" s="7"/>
-      <c r="F289" s="7"/>
-      <c r="G289" s="7"/>
-      <c r="H289" s="9"/>
+      <c r="A289" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C289" s="8">
+        <v>2.182123E7</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F289" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G289" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H289" s="12" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="290" ht="14.25" customHeight="1">
-      <c r="A290" s="5"/>
-      <c r="B290" s="6"/>
-      <c r="C290" s="7"/>
-      <c r="D290" s="7"/>
-      <c r="E290" s="7"/>
-      <c r="F290" s="7"/>
-      <c r="G290" s="7"/>
+      <c r="A290" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C290" s="8">
+        <v>2.182123E7</v>
+      </c>
+      <c r="D290" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E290" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F290" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G290" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H290" s="9"/>
     </row>
     <row r="291" ht="14.25" customHeight="1">
-      <c r="A291" s="5"/>
-      <c r="B291" s="6"/>
-      <c r="C291" s="7"/>
-      <c r="D291" s="7"/>
-      <c r="E291" s="7"/>
-      <c r="F291" s="7"/>
-      <c r="G291" s="7"/>
+      <c r="A291" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C291" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D291" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E291" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F291" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G291" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="H291" s="9"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
-      <c r="A292" s="5"/>
-      <c r="B292" s="6"/>
-      <c r="C292" s="7"/>
-      <c r="D292" s="7"/>
-      <c r="E292" s="7"/>
-      <c r="F292" s="7"/>
-      <c r="G292" s="7"/>
+      <c r="A292" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C292" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D292" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E292" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F292" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G292" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="H292" s="9"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
-      <c r="A293" s="5"/>
-      <c r="B293" s="6"/>
-      <c r="C293" s="7"/>
-      <c r="D293" s="7"/>
-      <c r="E293" s="7"/>
-      <c r="F293" s="7"/>
-      <c r="G293" s="7"/>
+      <c r="A293" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B293" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C293" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D293" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E293" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F293" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G293" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="H293" s="9"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
-      <c r="A294" s="5"/>
-      <c r="B294" s="6"/>
-      <c r="C294" s="7"/>
-      <c r="D294" s="7"/>
-      <c r="E294" s="7"/>
-      <c r="F294" s="7"/>
-      <c r="G294" s="7"/>
+      <c r="A294" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B294" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C294" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D294" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E294" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F294" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G294" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="H294" s="9"/>
     </row>
     <row r="295" ht="14.25" customHeight="1">
-      <c r="A295" s="5"/>
-      <c r="B295" s="6"/>
-      <c r="C295" s="7"/>
-      <c r="D295" s="7"/>
-      <c r="E295" s="7"/>
-      <c r="F295" s="7"/>
-      <c r="G295" s="7"/>
+      <c r="A295" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B295" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C295" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D295" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E295" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F295" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G295" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="H295" s="9"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
-      <c r="A296" s="5"/>
-      <c r="B296" s="6"/>
-      <c r="C296" s="7"/>
-      <c r="D296" s="7"/>
-      <c r="E296" s="7"/>
-      <c r="F296" s="7"/>
-      <c r="G296" s="7"/>
+      <c r="A296" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C296" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D296" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E296" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F296" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G296" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="H296" s="9"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
-      <c r="A297" s="5"/>
-      <c r="B297" s="6"/>
-      <c r="C297" s="7"/>
-      <c r="D297" s="7"/>
-      <c r="E297" s="7"/>
-      <c r="F297" s="7"/>
-      <c r="G297" s="7"/>
+      <c r="A297" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C297" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D297" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E297" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F297" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G297" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="H297" s="9"/>
     </row>
     <row r="298" ht="14.25" customHeight="1">
-      <c r="A298" s="5"/>
-      <c r="B298" s="6"/>
-      <c r="C298" s="7"/>
-      <c r="D298" s="7"/>
-      <c r="E298" s="7"/>
-      <c r="F298" s="7"/>
-      <c r="G298" s="7"/>
+      <c r="A298" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C298" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D298" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E298" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F298" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G298" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H298" s="9"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
-      <c r="A299" s="5"/>
-      <c r="B299" s="6"/>
-      <c r="C299" s="7"/>
-      <c r="D299" s="7"/>
-      <c r="E299" s="7"/>
-      <c r="F299" s="7"/>
-      <c r="G299" s="7"/>
+      <c r="A299" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C299" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D299" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E299" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F299" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G299" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="H299" s="9"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
-      <c r="A300" s="5"/>
-      <c r="B300" s="6"/>
-      <c r="C300" s="7"/>
-      <c r="D300" s="7"/>
-      <c r="E300" s="7"/>
-      <c r="F300" s="7"/>
-      <c r="G300" s="7"/>
+      <c r="A300" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C300" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D300" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E300" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F300" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G300" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="H300" s="9"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
-      <c r="A301" s="5"/>
-      <c r="B301" s="6"/>
-      <c r="C301" s="7"/>
-      <c r="D301" s="7"/>
-      <c r="E301" s="7"/>
-      <c r="F301" s="7"/>
-      <c r="G301" s="7"/>
+      <c r="A301" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C301" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D301" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E301" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F301" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G301" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="H301" s="9"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
-      <c r="A302" s="5"/>
-      <c r="B302" s="6"/>
-      <c r="C302" s="7"/>
-      <c r="D302" s="7"/>
-      <c r="E302" s="7"/>
-      <c r="F302" s="7"/>
-      <c r="G302" s="7"/>
+      <c r="A302" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C302" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D302" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E302" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F302" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G302" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="H302" s="9"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
-      <c r="A303" s="5"/>
-      <c r="B303" s="6"/>
-      <c r="C303" s="7"/>
-      <c r="D303" s="7"/>
-      <c r="E303" s="7"/>
-      <c r="F303" s="7"/>
-      <c r="G303" s="7"/>
+      <c r="A303" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C303" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D303" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E303" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F303" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G303" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="H303" s="9"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
-      <c r="A304" s="5"/>
-      <c r="B304" s="6"/>
-      <c r="C304" s="7"/>
-      <c r="D304" s="7"/>
-      <c r="E304" s="7"/>
-      <c r="F304" s="7"/>
-      <c r="G304" s="7"/>
+      <c r="A304" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B304" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C304" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D304" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E304" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F304" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G304" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="H304" s="9"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
-      <c r="A305" s="5"/>
-      <c r="B305" s="6"/>
-      <c r="C305" s="7"/>
-      <c r="D305" s="7"/>
-      <c r="E305" s="7"/>
-      <c r="F305" s="7"/>
-      <c r="G305" s="7"/>
+      <c r="A305" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B305" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C305" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D305" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E305" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F305" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G305" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="H305" s="9"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
-      <c r="A306" s="5"/>
-      <c r="B306" s="6"/>
-      <c r="C306" s="7"/>
-      <c r="D306" s="7"/>
-      <c r="E306" s="7"/>
-      <c r="F306" s="7"/>
-      <c r="G306" s="7"/>
+      <c r="A306" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B306" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C306" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E306" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F306" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G306" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="H306" s="9"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
-      <c r="A307" s="5"/>
-      <c r="B307" s="6"/>
-      <c r="C307" s="7"/>
-      <c r="D307" s="7"/>
-      <c r="E307" s="7"/>
-      <c r="F307" s="7"/>
+      <c r="A307" s="26">
+        <v>45481.0</v>
+      </c>
+      <c r="B307" s="27">
+        <v>0.3548611111111111</v>
+      </c>
+      <c r="C307" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D307" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E307" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F307" s="28" t="s">
+        <v>147</v>
+      </c>
       <c r="G307" s="7"/>
       <c r="H307" s="9"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
-      <c r="A308" s="5"/>
-      <c r="B308" s="6"/>
-      <c r="C308" s="7"/>
-      <c r="D308" s="7"/>
-      <c r="E308" s="7"/>
-      <c r="F308" s="7"/>
+      <c r="A308" s="26">
+        <v>45481.0</v>
+      </c>
+      <c r="B308" s="27">
+        <v>0.5868055555555556</v>
+      </c>
+      <c r="C308" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D308" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E308" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F308" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="G308" s="7"/>
       <c r="H308" s="9"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
-      <c r="A309" s="5"/>
-      <c r="B309" s="6"/>
-      <c r="C309" s="7"/>
-      <c r="D309" s="7"/>
-      <c r="E309" s="7"/>
-      <c r="F309" s="7"/>
+      <c r="A309" s="26">
+        <v>45467.0</v>
+      </c>
+      <c r="B309" s="27">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="C309" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D309" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E309" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F309" s="28" t="s">
+        <v>147</v>
+      </c>
       <c r="G309" s="7"/>
       <c r="H309" s="9"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
-      <c r="A310" s="5"/>
-      <c r="B310" s="6"/>
-      <c r="C310" s="7"/>
-      <c r="D310" s="7"/>
-      <c r="E310" s="7"/>
-      <c r="F310" s="7"/>
+      <c r="A310" s="26">
+        <v>45467.0</v>
+      </c>
+      <c r="B310" s="30"/>
+      <c r="C310" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D310" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E310" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F310" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="G310" s="7"/>
       <c r="H310" s="9"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
-      <c r="A311" s="5"/>
-      <c r="B311" s="6"/>
-      <c r="C311" s="7"/>
-      <c r="D311" s="7"/>
-      <c r="E311" s="7"/>
-      <c r="F311" s="7"/>
+      <c r="A311" s="26">
+        <v>45419.0</v>
+      </c>
+      <c r="B311" s="30"/>
+      <c r="C311" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D311" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E311" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F311" s="28" t="s">
+        <v>147</v>
+      </c>
       <c r="G311" s="7"/>
       <c r="H311" s="9"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
-      <c r="A312" s="5"/>
-      <c r="B312" s="6"/>
-      <c r="C312" s="7"/>
-      <c r="D312" s="7"/>
-      <c r="E312" s="7"/>
-      <c r="F312" s="7"/>
+      <c r="A312" s="26">
+        <v>45420.0</v>
+      </c>
+      <c r="B312" s="30"/>
+      <c r="C312" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D312" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E312" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F312" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="G312" s="7"/>
       <c r="H312" s="9"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
-      <c r="A313" s="5"/>
-      <c r="B313" s="6"/>
-      <c r="C313" s="7"/>
-      <c r="D313" s="7"/>
-      <c r="E313" s="7"/>
-      <c r="F313" s="7"/>
+      <c r="A313" s="26">
+        <v>45499.0</v>
+      </c>
+      <c r="B313" s="30"/>
+      <c r="C313" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D313" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E313" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F313" s="28" t="s">
+        <v>150</v>
+      </c>
       <c r="G313" s="7"/>
       <c r="H313" s="9"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
-      <c r="A314" s="5"/>
-      <c r="B314" s="6"/>
-      <c r="C314" s="7"/>
-      <c r="D314" s="7"/>
-      <c r="E314" s="7"/>
-      <c r="F314" s="7"/>
+      <c r="A314" s="26">
+        <v>45503.0</v>
+      </c>
+      <c r="B314" s="30"/>
+      <c r="C314" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D314" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E314" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F314" s="28" t="s">
+        <v>147</v>
+      </c>
       <c r="G314" s="7"/>
       <c r="H314" s="9"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
-      <c r="A315" s="5"/>
-      <c r="B315" s="6"/>
-      <c r="C315" s="7"/>
-      <c r="D315" s="7"/>
-      <c r="E315" s="7"/>
-      <c r="F315" s="7"/>
+      <c r="A315" s="26">
+        <v>45503.0</v>
+      </c>
+      <c r="B315" s="30"/>
+      <c r="C315" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D315" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E315" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F315" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="G315" s="7"/>
       <c r="H315" s="9"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
-      <c r="A316" s="5"/>
-      <c r="B316" s="6"/>
-      <c r="C316" s="7"/>
-      <c r="D316" s="7"/>
-      <c r="E316" s="7"/>
-      <c r="F316" s="7"/>
-      <c r="G316" s="7"/>
+      <c r="A316" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B316" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C316" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D316" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E316" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F316" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G316" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H316" s="9"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
-      <c r="A317" s="5"/>
-      <c r="B317" s="6"/>
-      <c r="C317" s="7"/>
-      <c r="D317" s="7"/>
-      <c r="E317" s="7"/>
-      <c r="F317" s="7"/>
-      <c r="G317" s="7"/>
+      <c r="A317" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B317" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C317" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D317" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E317" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F317" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G317" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H317" s="9"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
-      <c r="A318" s="5"/>
-      <c r="B318" s="6"/>
-      <c r="C318" s="7"/>
-      <c r="D318" s="7"/>
-      <c r="E318" s="7"/>
-      <c r="F318" s="7"/>
-      <c r="G318" s="7"/>
+      <c r="A318" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B318" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C318" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D318" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E318" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F318" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G318" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H318" s="9"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
-      <c r="A319" s="5"/>
-      <c r="B319" s="6"/>
-      <c r="C319" s="7"/>
-      <c r="D319" s="7"/>
-      <c r="E319" s="7"/>
-      <c r="F319" s="7"/>
-      <c r="G319" s="7"/>
+      <c r="A319" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B319" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C319" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D319" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E319" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F319" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G319" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H319" s="9"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
-      <c r="A320" s="5"/>
-      <c r="B320" s="6"/>
-      <c r="C320" s="7"/>
-      <c r="D320" s="7"/>
-      <c r="E320" s="7"/>
-      <c r="F320" s="7"/>
-      <c r="G320" s="7"/>
+      <c r="A320" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B320" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C320" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D320" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E320" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F320" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G320" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H320" s="9"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
-      <c r="A321" s="5"/>
-      <c r="B321" s="6"/>
-      <c r="C321" s="7"/>
-      <c r="D321" s="7"/>
-      <c r="E321" s="7"/>
-      <c r="F321" s="7"/>
-      <c r="G321" s="7"/>
+      <c r="A321" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B321" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C321" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D321" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E321" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F321" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G321" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H321" s="9"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
-      <c r="A322" s="5"/>
-      <c r="B322" s="6"/>
-      <c r="C322" s="7"/>
-      <c r="D322" s="7"/>
-      <c r="E322" s="7"/>
-      <c r="F322" s="7"/>
-      <c r="G322" s="7"/>
+      <c r="A322" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C322" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D322" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E322" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F322" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G322" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H322" s="9"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
-      <c r="A323" s="5"/>
-      <c r="B323" s="6"/>
-      <c r="C323" s="7"/>
-      <c r="D323" s="7"/>
-      <c r="E323" s="7"/>
-      <c r="F323" s="7"/>
-      <c r="G323" s="7"/>
+      <c r="A323" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B323" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C323" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D323" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F323" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G323" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H323" s="9"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
-      <c r="A324" s="5"/>
-      <c r="B324" s="6"/>
-      <c r="C324" s="7"/>
-      <c r="D324" s="7"/>
-      <c r="E324" s="7"/>
-      <c r="F324" s="7"/>
-      <c r="G324" s="7"/>
+      <c r="A324" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B324" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C324" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D324" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E324" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F324" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G324" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H324" s="9"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
-      <c r="A325" s="5"/>
-      <c r="B325" s="6"/>
-      <c r="C325" s="7"/>
-      <c r="D325" s="7"/>
-      <c r="E325" s="7"/>
-      <c r="F325" s="7"/>
-      <c r="G325" s="7"/>
+      <c r="A325" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B325" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C325" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D325" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E325" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F325" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G325" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H325" s="9"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
-      <c r="A326" s="5"/>
-      <c r="B326" s="6"/>
-      <c r="C326" s="7"/>
-      <c r="D326" s="7"/>
-      <c r="E326" s="7"/>
-      <c r="F326" s="7"/>
-      <c r="G326" s="7"/>
+      <c r="A326" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B326" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C326" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E326" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F326" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G326" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H326" s="9"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
-      <c r="A327" s="5"/>
-      <c r="B327" s="6"/>
-      <c r="C327" s="7"/>
-      <c r="D327" s="7"/>
-      <c r="E327" s="7"/>
-      <c r="F327" s="7"/>
-      <c r="G327" s="7"/>
+      <c r="A327" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B327" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C327" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D327" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F327" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G327" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H327" s="9"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
-      <c r="A328" s="5"/>
-      <c r="B328" s="6"/>
-      <c r="C328" s="7"/>
-      <c r="D328" s="7"/>
-      <c r="E328" s="7"/>
-      <c r="F328" s="7"/>
-      <c r="G328" s="7"/>
+      <c r="A328" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B328" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C328" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E328" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F328" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G328" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H328" s="9"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
-      <c r="A329" s="5"/>
-      <c r="B329" s="6"/>
-      <c r="C329" s="7"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="7"/>
-      <c r="F329" s="7"/>
-      <c r="G329" s="7"/>
+      <c r="A329" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B329" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C329" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F329" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G329" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H329" s="9"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
-      <c r="A330" s="5"/>
-      <c r="B330" s="6"/>
-      <c r="C330" s="7"/>
-      <c r="D330" s="7"/>
-      <c r="E330" s="7"/>
-      <c r="F330" s="7"/>
-      <c r="G330" s="7"/>
+      <c r="A330" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B330" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C330" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D330" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E330" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F330" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G330" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H330" s="9"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
-      <c r="A331" s="5"/>
-      <c r="B331" s="6"/>
-      <c r="C331" s="7"/>
-      <c r="D331" s="7"/>
-      <c r="E331" s="7"/>
-      <c r="F331" s="7"/>
-      <c r="G331" s="7"/>
+      <c r="A331" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B331" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C331" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D331" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F331" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G331" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="H331" s="9"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
-      <c r="A332" s="5"/>
-      <c r="B332" s="6"/>
-      <c r="C332" s="7"/>
-      <c r="D332" s="7"/>
-      <c r="E332" s="7"/>
-      <c r="F332" s="7"/>
-      <c r="G332" s="7"/>
+      <c r="A332" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B332" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C332" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D332" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E332" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F332" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G332" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H332" s="9"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
-      <c r="A333" s="5"/>
-      <c r="B333" s="6"/>
-      <c r="C333" s="7"/>
-      <c r="D333" s="7"/>
-      <c r="E333" s="7"/>
-      <c r="F333" s="7"/>
-      <c r="G333" s="7"/>
+      <c r="A333" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B333" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C333" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D333" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E333" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F333" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G333" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H333" s="9"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
-      <c r="A334" s="5"/>
-      <c r="B334" s="6"/>
-      <c r="C334" s="7"/>
-      <c r="D334" s="7"/>
-      <c r="E334" s="7"/>
-      <c r="F334" s="7"/>
-      <c r="G334" s="7"/>
+      <c r="A334" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B334" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C334" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E334" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F334" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G334" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H334" s="9"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
-      <c r="A335" s="5"/>
-      <c r="B335" s="6"/>
-      <c r="C335" s="7"/>
-      <c r="D335" s="7"/>
-      <c r="E335" s="7"/>
-      <c r="F335" s="7"/>
-      <c r="G335" s="7"/>
+      <c r="A335" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B335" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C335" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D335" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E335" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F335" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G335" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="H335" s="9"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
@@ -15250,21 +16089,36 @@
       <c r="G1024" s="7"/>
       <c r="H1024" s="9"/>
     </row>
+    <row r="1025" ht="14.25" customHeight="1">
+      <c r="A1025" s="5"/>
+      <c r="B1025" s="6"/>
+      <c r="C1025" s="7"/>
+      <c r="D1025" s="7"/>
+      <c r="E1025" s="7"/>
+      <c r="F1025" s="7"/>
+      <c r="G1025" s="7"/>
+      <c r="H1025" s="9"/>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1025">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F1024">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F1025">
       <formula1>drop_down_list!$D$2:$D$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from range" sqref="D2:D17 D21:D239 D243:D250 D257:D1024">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from range" sqref="D2:D17 D21:D239 D243:D250 D257:D311 D313:D1025">
       <formula1>drop_down_list!$B$2:$B$11</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E1024">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E1025">
       <formula1>drop_down_list!$C$2:$C$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Click and enter a value from range" sqref="D18:D20 D240:D242 D251:D256">
       <formula1>drop_down_list!$B$2:$B$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G1024">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G1025">
       <formula1>drop_down_list!$E$2:$E$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -15294,160 +16148,160 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="28" t="s">
+      <c r="C2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="B5" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>136</v>
+      <c r="E5" s="31" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="27" t="s">
+      <c r="B6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="C7" s="30"/>
-      <c r="D7" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>137</v>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="27"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="D11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="D12" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="D13" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="D14" s="32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="D15" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="D11" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="D12" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="D13" s="31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="D14" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="D15" s="28" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="D16" s="28" t="s">
-        <v>139</v>
+      <c r="D16" s="32" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="D17" s="28" t="s">
-        <v>140</v>
+      <c r="D17" s="32" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="D18" s="28" t="s">
-        <v>52</v>
+      <c r="D18" s="32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="D19" s="31" t="s">
-        <v>72</v>
+      <c r="D19" s="35" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1"/>
